--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2012545.443974643</v>
+        <v>2131217.362190271</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18084029.22468237</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513771.156497793</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5420526.980040406</v>
+        <v>5770001.757012148</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>327.7904349358024</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>223.5489236188411</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>188.214134412455</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>243.9210525060478</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.95652951480623</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>119.2231381114455</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.8934802385081</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>93.15668621802895</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>143.5062754865797</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>157.8824880649888</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>168.7843377880176</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.8906305143779</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>54.49360828358995</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>6.13357464679399</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>421.3289285846319</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>73.29899740799712</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998237</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1844,13 +1846,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932891</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1907,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805516904</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629694</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2141,10 +2143,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>107.574226033415</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.24876144511806</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,16 +2958,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>113.5770391806065</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>214.8227558384075</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3278,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V37" t="n">
-        <v>187.5234134555184</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3569,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="39">
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>27.07950026194645</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>195.9203231546713</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>137.5563529521258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3986,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4037,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>192.5917346532242</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>84.01976803536627</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>552.3238179760524</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>518.2217491998797</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.31037899924</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,52 +4330,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="M2" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="N2" t="n">
-        <v>874.0494664914149</v>
-      </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1386.909512161307</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>978.6233884609602</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>739.904854096271</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L3" t="n">
-        <v>739.904854096271</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M3" t="n">
-        <v>739.904854096271</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1291.875698540254</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>1697.183430080417</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1039.453444668908</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.798538035544</v>
+        <v>170.3819918753502</v>
       </c>
       <c r="C5" t="n">
-        <v>805.2168637728128</v>
+        <v>136.2799230991776</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6351895100811</v>
+        <v>104.4105423140261</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>74.67620151272536</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131954</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2191.582554136434</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.96560407026</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1424.110149481294</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1004.967686060605</v>
       </c>
       <c r="Y5" t="n">
-        <v>1660.098108520452</v>
+        <v>596.681562360258</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>319.8519551513677</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8519551513677</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>548.832425391431</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>548.832425391431</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>548.832425391431</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>548.832425391431</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.4371178854062</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>339.4371178854062</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>339.4371178854062</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>266.2978593068833</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>684.5077410748443</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1143.991608255757</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1586.250411413402</v>
       </c>
       <c r="O7" t="n">
-        <v>1566.63415311139</v>
+        <v>2005.919660639183</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609525</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179217</v>
       </c>
       <c r="W7" t="n">
-        <v>584.8288725519938</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="X7" t="n">
-        <v>339.4371178854062</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.4371178854062</v>
+        <v>1129.490547201359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.5213804116894</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C8" t="n">
-        <v>428.3789075951127</v>
+        <v>1701.80407972499</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>1265.894294899434</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2525.1049926066</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2525.1049926066</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.249538017633</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>1701.107074596944</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1292.820950896597</v>
+        <v>1758.165314945667</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4993,19 +4995,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2058.772275117024</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2058.772275117024</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.862490291469</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1189.087745449764</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>761.2203158589718</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>359.8224844822357</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>70.69232992545201</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>505.5302280055099</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1100.154487746227</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>1100.154487746227</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M11" t="n">
-        <v>1100.154487746227</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.154487746227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1969.814302084553</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2798.12417691795</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3344.622962876544</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3513.777027629601</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3430.125153813438</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3430.125153813438</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3430.125153813438</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3067.508203747264</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.652749158297</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2243.510285737608</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2058.772275117024</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>394.8338655188044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.567385589182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.567385589182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.567385589182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.567385589182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.567385589182</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P12" t="n">
-        <v>1192.776363399325</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>939.0107466722079</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C13" t="n">
-        <v>766.4490351554329</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D13" t="n">
-        <v>600.5710423569556</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
-        <v>430.8130386076928</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>375.7689898363898</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>210.1777148622175</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>70.27554055259202</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>431.6136802884174</v>
+        <v>463.5989800066042</v>
       </c>
       <c r="L13" t="n">
-        <v>849.8235620563785</v>
+        <v>881.8088617745652</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P13" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.935150455392</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S13" t="n">
-        <v>2686.935150455392</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2441.055704033847</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U13" t="n">
-        <v>2162.622703286952</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V13" t="n">
-        <v>1875.667195157383</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.640790743674</v>
+        <v>1454.966900465229</v>
       </c>
       <c r="X13" t="n">
-        <v>1358.249036077087</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.829365391195</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>929.6350617424099</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>929.6350617424099</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>929.6350617424099</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>495.8603169007051</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>70.27554055259202</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>70.27554055259202</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>70.27554055259202</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>505.5302280055099</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.880519963688</v>
+        <v>228.524776110223</v>
       </c>
       <c r="L14" t="n">
-        <v>1969.814302084553</v>
+        <v>1303.584742363082</v>
       </c>
       <c r="M14" t="n">
-        <v>1969.814302084553</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N14" t="n">
-        <v>1969.814302084553</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.814302084553</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P14" t="n">
-        <v>2798.12417691795</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>3344.622962876544</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>3513.777027629601</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3430.125153813438</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3210.057926686477</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2950.835624003494</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2588.21867393732</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2183.363219348354</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>1764.220755927664</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1355.934632227318</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.33921371304962</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>420.897538679262</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.5535340563707</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>670.9918225395957</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>670.9918225395957</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>501.2338187903329</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>324.526764752089</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>158.9354897779167</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>158.9354897779167</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>431.6136802884174</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>849.8235620563785</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q16" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R16" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S16" t="n">
-        <v>2591.477937839555</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="T16" t="n">
-        <v>2345.59849141801</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U16" t="n">
-        <v>2067.165490671115</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1780.209982541546</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.183578127837</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1262.79182346125</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.372152775358</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5513,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573035</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562604</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2543.461783934675</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2265.02878318778</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1978.07327505821</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1706.046870644502</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.655115977914</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.235445292023</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,19 +5755,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P20" t="n">
         <v>5113.042013538981</v>
@@ -5777,22 +5779,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.728611060351</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>863.1668995435758</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>697.2889067450985</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>527.5309029958357</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>350.823848957592</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1227.547229779338</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6181,16 +6183,16 @@
         <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534295</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6470,19 +6472,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,25 +6539,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>834.8539430951545</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>662.2922315783794</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>496.4142387799021</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>286.091284287636</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2582.778346878338</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2336.898900456793</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2058.465899709899</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1771.510391580329</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.483987166621</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1254.092232500033</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1026.672561814142</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>936.6111322289576</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>2093.658967439508</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>3219.389950875955</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>4199.569617446262</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,25 +6943,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7014,25 +7016,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>426.819165236992</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L36" t="n">
-        <v>426.819165236992</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M36" t="n">
-        <v>426.819165236992</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N36" t="n">
-        <v>426.819165236992</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O36" t="n">
-        <v>426.819165236992</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7126,19 +7128,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.949044954127</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2265.02878318778</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1978.07327505821</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1706.046870644502</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.655115977914</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1378.102543036429</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>939.9600702198524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>504.0502853942968</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>70.27554055259202</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>70.27554055259202</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>70.27554055259202</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>70.27554055259202</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>70.27554055259202</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>70.27554055259202</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="L41" t="n">
-        <v>939.9353548909181</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M41" t="n">
-        <v>1809.595169229244</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N41" t="n">
-        <v>2644.117213291275</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O41" t="n">
-        <v>3513.777027629601</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3513.777027629601</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3513.777027629601</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3513.777027629601</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3430.125153813438</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3232.225837495588</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2973.003534812605</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2610.386584746431</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2205.531130157465</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>1786.388666736776</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1378.102543036429</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>96.33921371304962</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>420.897538679262</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.0649356094546</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>800.0649356094546</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>634.1869428109773</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>464.4289390617145</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4289390617145</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G43" t="n">
-        <v>298.8376640875422</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>158.9354897779167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>431.6136802884174</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>849.8235620563785</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2547.989339392639</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2302.109892971094</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.676892224199</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1736.721384094629</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1464.694979680921</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1219.303225014334</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.8835543284417</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2069.047318342809</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1630.904845526232</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1194.995060700677</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>761.2203158589718</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>761.2203158589718</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>359.8224844822357</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>70.69232992545201</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>505.5302280055099</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.880519963688</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="L44" t="n">
-        <v>2209.540334302014</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M44" t="n">
-        <v>2209.540334302014</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N44" t="n">
-        <v>2209.540334302014</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O44" t="n">
-        <v>2685.467152796205</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3513.777027629601</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3513.777027629601</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3513.777027629601</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3513.777027629601</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3293.70980050264</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3034.487497819657</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2671.870547753483</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2671.870547753483</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2477.333442043156</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2069.047318342809</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0111927363795</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27554055259202</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>394.8338655188044</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>832.7244728166041</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>660.1627612998291</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>494.2847685013518</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>324.526764752089</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>324.526764752089</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>158.9354897779167</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>158.9354897779167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>70.27554055259202</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6136802884174</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>849.8235620563785</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2580.648876599788</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.769430178243</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2056.336429431348</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.380921301779</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1497.354516888071</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.962762221483</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1024.543091535591</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8146,13 +8148,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>239.5100572483138</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,31 +8294,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>149.2707481568524</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.045932037784</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>600.630565394664</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074001</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8766,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P12" t="n">
-        <v>118.392906878933</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>127.5393291307509</v>
       </c>
       <c r="L14" t="n">
-        <v>636.2967496170359</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1011.616850682013</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,7 +9418,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>834.6527275730846</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -10200,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>199.8177226071384</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10425,19 +10427,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10662,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>806.0025231116373</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L41" t="n">
-        <v>878.4442569074002</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>878.4442569074004</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>842.9515596586166</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L44" t="n">
-        <v>878.4442569074001</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>480.7341600951427</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>221.3126319489652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.0118993322388</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.259826710252412</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>84.34995760698618</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>208.2197249473469</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56.36113619101562</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>44.28436272291287</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>44.07191583437675</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>54.48338453116392</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V37" t="n">
-        <v>96.56253959275543</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>21.94623170102051</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>20.09260206285748</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>222.3593041332582</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>73.62918697961703</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>487525.344690161</v>
+        <v>493866.5059017987</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>383796.4143765579</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383796.4143765579</v>
+        <v>501317.0056593133</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>501317.0056593134</v>
+        <v>501317.0056593133</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>501317.0056593135</v>
+        <v>501317.0056593133</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>383796.4143765579</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>383796.4143765579</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>352930.966278399</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="F2" t="n">
-        <v>352930.966278399</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
+        <v>461000.3861201833</v>
+      </c>
+      <c r="I2" t="n">
+        <v>461000.3861201833</v>
+      </c>
+      <c r="J2" t="n">
         <v>461000.3861201832</v>
       </c>
-      <c r="I2" t="n">
-        <v>461000.3861201834</v>
-      </c>
-      <c r="J2" t="n">
-        <v>461000.3861201833</v>
-      </c>
       <c r="K2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="N2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="O2" t="n">
+        <v>461000.3861201832</v>
+      </c>
+      <c r="P2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="N2" t="n">
-        <v>461000.3861201833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>352930.966278399</v>
-      </c>
-      <c r="P2" t="n">
-        <v>352930.966278399</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>75551.22640712859</v>
+        <v>11527.59554998254</v>
       </c>
       <c r="E3" t="n">
-        <v>62978.77398033705</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109583.6359157431</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>9392.301726622127</v>
       </c>
       <c r="M3" t="n">
-        <v>52564.36305084739</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947849</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>31482.75706012216</v>
+        <v>41122.95192991262</v>
       </c>
       <c r="F4" t="n">
-        <v>31482.75706012217</v>
+        <v>41122.95192991261</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991264</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26456,10 @@
         <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>31482.75706012217</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>31482.75706012217</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53409.41081996993</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>53409.41081996993</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>53409.41081996993</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>53409.41081996993</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79948.28305136197</v>
+        <v>79948.28305136185</v>
       </c>
       <c r="C6" t="n">
-        <v>222139.5837110718</v>
+        <v>183849.7584063036</v>
       </c>
       <c r="D6" t="n">
-        <v>179981.4066963166</v>
+        <v>244005.0375534626</v>
       </c>
       <c r="E6" t="n">
-        <v>205060.0244179698</v>
+        <v>159804.0863634286</v>
       </c>
       <c r="F6" t="n">
-        <v>268038.7983983069</v>
+        <v>342159.1955844782</v>
       </c>
       <c r="G6" t="n">
-        <v>232575.559668735</v>
+        <v>342159.1955844782</v>
       </c>
       <c r="H6" t="n">
-        <v>342159.195584478</v>
+        <v>342159.1955844781</v>
       </c>
       <c r="I6" t="n">
         <v>342159.1955844781</v>
@@ -26546,22 +26548,22 @@
         <v>231144.7302394878</v>
       </c>
       <c r="K6" t="n">
+        <v>289113.3409457053</v>
+      </c>
+      <c r="L6" t="n">
+        <v>332766.893857856</v>
+      </c>
+      <c r="M6" t="n">
+        <v>189959.0246464906</v>
+      </c>
+      <c r="N6" t="n">
+        <v>342159.1955844782</v>
+      </c>
+      <c r="O6" t="n">
         <v>342159.195584478</v>
       </c>
-      <c r="L6" t="n">
-        <v>280602.5673045096</v>
-      </c>
-      <c r="M6" t="n">
-        <v>289594.8325336307</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>342159.1955844781</v>
-      </c>
-      <c r="O6" t="n">
-        <v>268038.7983983069</v>
-      </c>
-      <c r="P6" t="n">
-        <v>268038.7983983069</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>878.4442569074002</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>878.4442569074002</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>878.4442569074002</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>878.4442569074002</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="D4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939266</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9290502995433</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>399.8162464773451</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939266</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995433</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939266</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995433</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>399.8162464773451</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>101.6465624574853</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27442,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>191.4021151676413</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,16 +27596,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>79.64395877249362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.93133956657778</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>12.70902715010547</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.2467329485369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>150.0830022581259</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>98.2519937405247</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>336.2803111752588</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>113.1238041695736</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>56.36113619101522</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34866,13 +34868,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>239.5100572483138</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>149.2707481568524</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.045932037784</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>600.630565394664</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074001</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P12" t="n">
-        <v>118.392906878933</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,19 +35570,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960957</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>127.5393291307509</v>
       </c>
       <c r="L14" t="n">
-        <v>636.2967496170359</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,16 +35813,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165029</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1011.616850682013</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,7 +36138,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,10 +36369,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,22 +36840,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>834.6527275730846</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36920,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37081,13 +37083,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>199.8177226071384</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,19 +37311,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>806.0025231116373</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889939</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L41" t="n">
-        <v>878.4442569074002</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>878.4442569074004</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>842.9515596586166</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L44" t="n">
-        <v>878.4442569074001</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>480.7341600951427</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2131217.362190271</v>
+        <v>2130692.179821238</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916864</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5770001.757012148</v>
+        <v>5770001.757012149</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>77.73429331093243</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>223.5489236188411</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>177.2701778859457</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -828,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.214134412455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -910,7 +910,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>252.2397730721995</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>243.9210525060478</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>140.0647189123066</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.8934802385081</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>93.15668621802895</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>168.7843377880176</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1390,7 +1390,7 @@
         <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314619</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556928</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.13357464679399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314619</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701016306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.20092700998237</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1846,13 +1846,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932891</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.292363805516904</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629694</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2143,10 +2143,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>28.8556017839858</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430626</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>94.21878984361635</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>214.8227558384075</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791323219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3799,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655131</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>552.3238179760524</v>
+        <v>888.1040799405456</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2217491998797</v>
+        <v>854.002011164373</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>425.4203369016413</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
         <v>1697.183430080417</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.909512161307</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>978.6233884609602</v>
+        <v>1314.403650425453</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>847.6348259499213</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>675.0731144331462</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>509.1951216346689</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,43 +4497,43 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>452.1535503695694</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>872.2064493144727</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1291.875698540254</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W4" t="n">
-        <v>1229.568731954216</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="X4" t="n">
-        <v>1229.568731954216</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="Y4" t="n">
-        <v>1039.453444668908</v>
+        <v>1292.062614956869</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.3819918753502</v>
+        <v>425.1696414432284</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2799230991776</v>
+        <v>391.0675726670557</v>
       </c>
       <c r="D5" t="n">
-        <v>104.4105423140261</v>
+        <v>359.1981918819043</v>
       </c>
       <c r="E5" t="n">
-        <v>74.67620151272536</v>
+        <v>329.4638510806035</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233714</v>
+        <v>305.6368255302153</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233714</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233714</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131954</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>1805.966478762206</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>1805.966478762206</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1805.966478762206</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762206</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.4652647208</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657694</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657694</v>
+        <v>2301.552102346891</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.582554136434</v>
+        <v>2042.329799663908</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.96560407026</v>
+        <v>1679.712849597735</v>
       </c>
       <c r="W5" t="n">
-        <v>1424.110149481294</v>
+        <v>1274.857395008768</v>
       </c>
       <c r="X5" t="n">
-        <v>1004.967686060605</v>
+        <v>855.7149315880787</v>
       </c>
       <c r="Y5" t="n">
-        <v>596.681562360258</v>
+        <v>447.4288078877321</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326467</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993474</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>401.0543847161471</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>401.0543847161471</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>548.832425391431</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>548.832425391431</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>548.832425391431</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>548.832425391431</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>593.0357356940372</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>420.4740241772621</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068833</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748443</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255757</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413402</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639183</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609525</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179229</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477226</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055681</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308786</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179217</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765508</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>1257.665779765508</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1129.490547201359</v>
+        <v>784.8543544130243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1735.906148501163</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1701.80407972499</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1265.894294899434</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.796632052941</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4804,22 +4804,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.553498026298</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.411034605609</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1758.165314945667</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.107276723079</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5029,28 +5029,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5071,7 +5071,7 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
         <v>4550.100609912873</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5202,49 +5202,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.5989800066042</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745652</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955478</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338904</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.50262887895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755402</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008507</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.966900465229</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5272,34 +5272,34 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>228.524776110223</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1303.584742363082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5314,16 +5314,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903994</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736244</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751471</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258843</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876405</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354736</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066092</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745702</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="T16" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752039</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005144</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461866</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109387</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2093.658967439508</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.441008084184</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.259626803171</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5740,61 +5740,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6177,22 +6177,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>306.120802776629</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6396,40 +6396,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6545,13 +6545,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
         <v>1107.588885023173</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>286.091284287636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1004.611946844417</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>832.0502353276421</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1669.241990915884</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1423.850236249296</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1196.430565563404</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,16 +6943,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7122,10 +7122,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
         <v>2176.368833962455</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771605</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004243</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436406</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7651,49 +7651,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7806,52 +7806,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354686</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066042</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745652</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8145,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>239.5100572483138</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684643</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611246</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>149.2707481568524</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.045932037784</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>288.7351832965069</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>500.2430848324439</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1011.616850682013</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9421,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>205.9191540463125</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>606.9002735643694</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>750.2469944428849</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>388.0185734358511</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.0118993322388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>120.4463752142675</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2197249473469</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>34.67467827192073</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>44.28436272291287</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>54.48338453116392</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424778</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493866.5059017987</v>
+        <v>493866.5059017986</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>501317.0056593133</v>
+        <v>501317.0056593135</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501317.0056593134</v>
+        <v>501317.0056593133</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>501317.0056593134</v>
+        <v>501317.0056593135</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>501317.0056593133</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>501317.0056593133</v>
+        <v>501317.0056593134</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="C2" t="n">
         <v>469128.9049041075</v>
@@ -26322,10 +26322,10 @@
         <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="G2" t="n">
         <v>461000.3861201833</v>
@@ -26337,25 +26337,25 @@
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="K2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="O2" t="n">
         <v>461000.3861201832</v>
       </c>
       <c r="P2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.7678950164</v>
+        <v>66587.76789501605</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998254</v>
+        <v>11527.59554998289</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.8546387727</v>
+        <v>53045.85463877242</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622127</v>
+        <v>9392.301726622407</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.1647947849</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991262</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991261</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991264</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
@@ -26441,7 +26441,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991278</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26450,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991266</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79948.28305136185</v>
+        <v>79948.28305136197</v>
       </c>
       <c r="C6" t="n">
-        <v>183849.7584063036</v>
+        <v>183849.7584063038</v>
       </c>
       <c r="D6" t="n">
-        <v>244005.0375534626</v>
+        <v>244005.0375534624</v>
       </c>
       <c r="E6" t="n">
-        <v>159804.0863634286</v>
+        <v>159780.8620240457</v>
       </c>
       <c r="F6" t="n">
-        <v>342159.1955844782</v>
+        <v>342135.9712450955</v>
       </c>
       <c r="G6" t="n">
-        <v>342159.1955844782</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="H6" t="n">
-        <v>342159.1955844781</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="I6" t="n">
-        <v>342159.1955844781</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="J6" t="n">
-        <v>231144.7302394878</v>
+        <v>231121.5059001053</v>
       </c>
       <c r="K6" t="n">
-        <v>289113.3409457053</v>
+        <v>289090.116606323</v>
       </c>
       <c r="L6" t="n">
-        <v>332766.893857856</v>
+        <v>332743.669518473</v>
       </c>
       <c r="M6" t="n">
-        <v>189959.0246464906</v>
+        <v>189935.8003071078</v>
       </c>
       <c r="N6" t="n">
-        <v>342159.1955844782</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="O6" t="n">
-        <v>342159.195584478</v>
+        <v>342135.9712450954</v>
       </c>
       <c r="P6" t="n">
-        <v>342159.1955844781</v>
+        <v>342135.9712450955</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684643</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939266</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939266</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939266</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27384,10 +27384,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>351.7027040823554</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27438,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>191.4021151676413</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.63025464585155</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27605,7 +27605,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.93133956657778</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>145.1440799907693</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.70902715010547</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24.15449395818595</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.2519937405247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>336.2803111752588</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.36113619101522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.004823810364605e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.698314381224416e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-9.243732216450082e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.416577200369171e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-8.194416931891906e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-8.807523739703152e-13</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>239.5100572483138</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684643</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611246</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>149.2707481568524</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.045932037784</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>288.7351832965069</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960957</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908485</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,16 +35813,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165029</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>500.2430848324439</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1011.616850682013</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36141,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>205.9191540463125</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,10 +36764,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956053</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36834,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>606.9002735643694</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>750.2469944428849</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>388.0185734358511</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743907979</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
